--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432143.33387836</v>
+        <v>432498.066694191</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.141622</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437308</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6447724.176299114</v>
+        <v>6278287.202313812</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>284.0850964629355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>265.1045831588601</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.98329378456221</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>242.5166083752615</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>123.0638693772647</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>101.6816128081183</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>251.5655920333162</v>
+        <v>392.4691241621589</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1217,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1339,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.9114967878035</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>142.4318080271705</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.407212797182337</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3950232139772</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.0767283909097</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.53944252213982</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.3022168271327</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.91901851275546</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2293,7 +2295,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>70.84799766015878</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2318,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>382.8845886267351</v>
+        <v>388.2474135039329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>85.25432609134842</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>142.5359303380055</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>190.6850494015357</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>90.69280794983001</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2725,7 +2727,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>28.04406721331992</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2950,22 +2952,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>19.10574526835483</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.8710203300643</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>263.8011530652003</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>19.89843046229006</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>220.2647746254032</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>19.89843046229006</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3512,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>40.3950232139772</v>
       </c>
       <c r="G38" t="n">
-        <v>90.69280794983001</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>171.5900529358621</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>65.42520756919141</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>298.0721989747363</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>106.9706214097038</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.2601210751802</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>337.0538370894138</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4067,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>57.11049760307137</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
         <v>195.3773027531635</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>87.92341695801524</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1552.036533222293</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="C2" t="n">
-        <v>1141.911942535563</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="D2" t="n">
-        <v>737.4480126286239</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="E2" t="n">
-        <v>737.4480126286239</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1552.036533222293</v>
+        <v>1598.265390195789</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4395,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184966</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1355.411243798696</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1115.862504775398</v>
       </c>
       <c r="U4" t="n">
-        <v>1145.223475107064</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V4" t="n">
-        <v>1145.223475107064</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W4" t="n">
-        <v>1145.223475107064</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.223475107064</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.223475107064</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.7313567157248</v>
+        <v>538.2414389992588</v>
       </c>
       <c r="C5" t="n">
-        <v>286.7313567157248</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="D5" t="n">
-        <v>286.7313567157248</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>1349.399291715658</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.595934211262</v>
+        <v>1349.399291715658</v>
       </c>
       <c r="X5" t="n">
-        <v>696.9525363802143</v>
+        <v>1349.399291715658</v>
       </c>
       <c r="Y5" t="n">
-        <v>696.9525363802143</v>
+        <v>948.4626186637482</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4632,34 +4634,34 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960218</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960218</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959274</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.595934211262</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.595934211262</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="D8" t="n">
-        <v>693.1320043043222</v>
+        <v>1273.569171908673</v>
       </c>
       <c r="E8" t="n">
-        <v>693.1320043043222</v>
+        <v>859.22895642557</v>
       </c>
       <c r="F8" t="n">
-        <v>693.1320043043222</v>
+        <v>438.1985443792576</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4805,19 +4807,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L8" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="N8" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="M8" t="n">
-        <v>1250.250340018485</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1250.250340018485</v>
-      </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844746</v>
@@ -4881,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M9" t="n">
-        <v>751.4208778585605</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4987,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>1485.891263925851</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>1485.891263925851</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>941.3090623266362</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C11" t="n">
-        <v>941.3090623266362</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D11" t="n">
-        <v>536.8451324196967</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
-        <v>536.8451324196967</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>536.8451324196967</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M11" t="n">
         <v>1054.568412147452</v>
@@ -5081,10 +5083,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960218</v>
       </c>
       <c r="J12" t="n">
         <v>41.76508562960205</v>
@@ -5124,16 +5126,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1586.896209062304</v>
+        <v>1274.958175906603</v>
       </c>
       <c r="C14" t="n">
-        <v>1586.896209062304</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="D14" t="n">
-        <v>1182.432279155364</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E14" t="n">
-        <v>1182.432279155364</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F14" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
         <v>41.76508562960205</v>
@@ -5276,25 +5278,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N14" t="n">
-        <v>812.7934917636817</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1586.896209062304</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1586.896209062304</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1586.896209062304</v>
+        <v>2085.82275340214</v>
       </c>
       <c r="X14" t="n">
-        <v>1586.896209062304</v>
+        <v>1685.179355571093</v>
       </c>
       <c r="Y14" t="n">
-        <v>1586.896209062304</v>
+        <v>1685.179355571093</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>234.5779431922353</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M15" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N15" t="n">
-        <v>1268.263812524886</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O15" t="n">
-        <v>1785.106747191211</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.106747191211</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5461,19 +5463,19 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1355.411243798696</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1115.862504775398</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X16" t="n">
         <v>41.76508562960205</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>492.6927300678241</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C17" t="n">
-        <v>82.56813938109417</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5552,13 +5554,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>902.9139097323135</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>52.35970185319746</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184962</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.73421949034935</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C19" t="n">
-        <v>84.73421949034935</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>84.73421949034935</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>84.73421949034935</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>84.73421949034935</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
         <v>41.76508562960205</v>
@@ -5695,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V19" t="n">
-        <v>588.5395825927103</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="W19" t="n">
-        <v>309.4699181015847</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="X19" t="n">
-        <v>309.4699181015847</v>
+        <v>499.2878217204438</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.73421949034935</v>
+        <v>274.5521231092085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1700.88079042271</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C20" t="n">
-        <v>1700.88079042271</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.41686051577</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E20" t="n">
-        <v>882.0766450326671</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>461.0462329863546</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>590.4774499882262</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.912067368162</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M20" t="n">
-        <v>1237.912067368162</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.548935057375</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>2254.17979147448</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2254.17979147448</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2575.340798269772</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.254046128289</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1814.317373076379</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M21" t="n">
-        <v>52.31794887918674</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N21" t="n">
-        <v>699.7525662591225</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O21" t="n">
-        <v>1347.187183639058</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P21" t="n">
-        <v>1908.893076127588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>537.3545345773659</v>
+        <v>400.8398761986659</v>
       </c>
       <c r="C22" t="n">
-        <v>537.3545345773659</v>
+        <v>229.7465037603824</v>
       </c>
       <c r="D22" t="n">
-        <v>377.859889900276</v>
+        <v>229.7465037603824</v>
       </c>
       <c r="E22" t="n">
-        <v>216.9490747685955</v>
+        <v>229.7465037603824</v>
       </c>
       <c r="F22" t="n">
-        <v>52.31794887918674</v>
+        <v>229.7465037603824</v>
       </c>
       <c r="G22" t="n">
-        <v>52.31794887918674</v>
+        <v>229.7465037603824</v>
       </c>
       <c r="H22" t="n">
-        <v>52.31794887918674</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1496.444127175436</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1310.052359055347</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1070.503620032049</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>998.9399860318883</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V22" t="n">
-        <v>725.0542409714103</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W22" t="n">
-        <v>725.0542409714103</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X22" t="n">
-        <v>725.0542409714103</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="Y22" t="n">
-        <v>725.0542409714103</v>
+        <v>588.5395825927103</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.561405884877</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C23" t="n">
-        <v>1229.809296160902</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>1229.809296160902</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>815.4690806777985</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>394.4386686314861</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>223.4705000722985</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>761.630001181338</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>1474.221400993576</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>2250.53999198533</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N23" t="n">
-        <v>3003.721008623948</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>3647.351865041053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4041.227487754305</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3819.021003701164</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3561.960511960674</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3212.122957297155</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.362656432324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>2427.719258601276</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2026.782585549366</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L24" t="n">
-        <v>83.5301712592041</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M24" t="n">
-        <v>926.5072519537707</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.165344065389</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3620.097470744818</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>3449.004098306535</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>3289.509453629445</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>3128.598638497764</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>2963.967512608355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>2796.717121533899</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>2661.192215744566</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>2815.744543466803</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>3075.641643746864</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>3364.905700187357</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>3645.744482581607</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>3905.305092908081</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>4110.980533157694</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>4176.508562960204</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>4176.508562960204</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V25" t="n">
-        <v>4176.508562960204</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W25" t="n">
-        <v>4176.508562960204</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X25" t="n">
-        <v>4032.532875750098</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y25" t="n">
-        <v>3807.797177138862</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>543.4985732353522</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="C26" t="n">
-        <v>133.3739825486223</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="D26" t="n">
-        <v>133.3739825486223</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="E26" t="n">
-        <v>133.3739825486223</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F26" t="n">
-        <v>133.3739825486223</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
         <v>41.76508562960205</v>
@@ -6242,7 +6244,7 @@
         <v>1592.293889628578</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
         <v>2088.254281480102</v>
@@ -6266,10 +6268,10 @@
         <v>1354.656425951752</v>
       </c>
       <c r="X26" t="n">
-        <v>1354.656425951752</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.7197528998416</v>
+        <v>954.0130281207041</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811262</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>865.1454348405214</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="C28" t="n">
-        <v>694.0520624022379</v>
+        <v>555.1290119472964</v>
       </c>
       <c r="D28" t="n">
-        <v>534.5574177251478</v>
+        <v>395.6343672702064</v>
       </c>
       <c r="E28" t="n">
-        <v>373.6466025934674</v>
+        <v>234.7235521385259</v>
       </c>
       <c r="F28" t="n">
-        <v>209.0154767040586</v>
+        <v>70.09242624911712</v>
       </c>
       <c r="G28" t="n">
         <v>41.76508562960205</v>
@@ -6418,16 +6420,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W28" t="n">
-        <v>1515.924701986118</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.580839845801</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y28" t="n">
-        <v>1052.845141234566</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="29">
@@ -6476,13 +6478,13 @@
         <v>1592.293889628578</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6540,22 +6542,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>81.91922121582746</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K30" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L30" t="n">
-        <v>1054.568412147451</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N30" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1014.752890035065</v>
+        <v>220.5584629009898</v>
       </c>
       <c r="C31" t="n">
-        <v>843.6595175967814</v>
+        <v>220.5584629009898</v>
       </c>
       <c r="D31" t="n">
-        <v>684.1648729196913</v>
+        <v>61.06381822389986</v>
       </c>
       <c r="E31" t="n">
-        <v>523.2540577880108</v>
+        <v>61.06381822389986</v>
       </c>
       <c r="F31" t="n">
-        <v>358.622931898602</v>
+        <v>61.06381822389986</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
         <v>41.76508562960205</v>
@@ -6646,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V31" t="n">
-        <v>1331.615243227154</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W31" t="n">
-        <v>1331.615243227154</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="X31" t="n">
-        <v>1331.615243227154</v>
+        <v>632.9938679062695</v>
       </c>
       <c r="Y31" t="n">
-        <v>1202.452596429109</v>
+        <v>408.2581692950342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1285.863997266186</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C32" t="n">
-        <v>1285.863997266186</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G32" t="n">
         <v>41.76508562960205</v>
@@ -6701,22 +6703,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>216.5644706858345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L32" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M32" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N32" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O32" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
         <v>2088.254281480102</v>
@@ -6725,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.329808443156</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y32" t="n">
-        <v>1552.329808443156</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6785,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1659581184962</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.008892784821</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O33" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.76508562960205</v>
+        <v>1214.985342995715</v>
       </c>
       <c r="C34" t="n">
-        <v>41.76508562960205</v>
+        <v>1043.891970557431</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960205</v>
+        <v>884.3973258803412</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960205</v>
+        <v>723.4865107486606</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L34" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M34" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O34" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P34" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1971997769844</v>
+        <v>1865.764610141311</v>
       </c>
       <c r="X34" t="n">
-        <v>41.76508562960205</v>
+        <v>1627.420748000995</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.76508562960205</v>
+        <v>1402.685049389759</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1695.988587952916</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.863997266186</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.863997266186</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="G35" t="n">
         <v>41.76508562960205</v>
@@ -6944,7 +6946,7 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M35" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N35" t="n">
         <v>1075.450954962253</v>
@@ -6977,10 +6979,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7022,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7254774811262</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q36" t="n">
         <v>2088.254281480102</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
         <v>41.76508562960205</v>
@@ -7126,19 +7128,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.163982250452</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X37" t="n">
-        <v>1543.534340936018</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>543.4985732353522</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C38" t="n">
-        <v>133.3739825486223</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="D38" t="n">
-        <v>133.3739825486223</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="E38" t="n">
-        <v>133.3739825486223</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="F38" t="n">
-        <v>133.3739825486223</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
         <v>41.76508562960205</v>
@@ -7181,16 +7183,16 @@
         <v>558.6080202959273</v>
       </c>
       <c r="M38" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N38" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O38" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
         <v>2088.254281480102</v>
@@ -7208,16 +7210,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W38" t="n">
-        <v>1354.656425951752</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X38" t="n">
-        <v>1354.656425951752</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.7197528998416</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M39" t="n">
         <v>1054.568412147451</v>
       </c>
       <c r="N39" t="n">
+        <v>1054.568412147451</v>
+      </c>
+      <c r="O39" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.1111315252759</v>
+        <v>646.0623502325593</v>
       </c>
       <c r="C40" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="D40" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="E40" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F40" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H40" t="n">
         <v>158.1111315252759</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W40" t="n">
-        <v>224.1971997769844</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="X40" t="n">
-        <v>158.1111315252759</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.1111315252759</v>
+        <v>819.3856360263594</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>740.1083749522213</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C41" t="n">
-        <v>439.0253456848109</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D41" t="n">
-        <v>439.0253456848109</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E41" t="n">
-        <v>439.0253456848109</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
@@ -7415,16 +7417,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L41" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M41" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N41" t="n">
         <v>1075.450954962253</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P41" t="n">
         <v>1767.09327468481</v>
@@ -7436,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
@@ -7491,22 +7493,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>234.5779431922353</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
-        <v>751.4208778585605</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1268.263812524886</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960205</v>
+        <v>1158.40534984338</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960205</v>
+        <v>987.311977405097</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960205</v>
+        <v>827.8173327280069</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>666.9065175963265</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1340.598203386633</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U43" t="n">
-        <v>1057.800055932758</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V43" t="n">
-        <v>783.9143108722797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W43" t="n">
-        <v>504.844646381154</v>
+        <v>1809.184616988977</v>
       </c>
       <c r="X43" t="n">
-        <v>266.5007842408373</v>
+        <v>1570.84075484866</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.76508562960205</v>
+        <v>1346.105056237425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.517402081457</v>
+        <v>757.1375129088235</v>
       </c>
       <c r="C44" t="n">
-        <v>819.3996562188394</v>
+        <v>757.1375129088235</v>
       </c>
       <c r="D44" t="n">
-        <v>819.3996562188394</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E44" t="n">
-        <v>425.3059392994284</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>40.13971065786654</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M44" t="n">
-        <v>426.3909626105813</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N44" t="n">
-        <v>812.642214563296</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000868</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.611119000868</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1560.611119000868</v>
+        <v>757.1375129088235</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>460.284638735585</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>326.2895674845307</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>209.3924097039231</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>88.89959369625106</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L45" t="n">
-        <v>31.21222238001735</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4634743327321</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N45" t="n">
-        <v>788.1086150954382</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
-        <v>1174.359867048153</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1560.611119000868</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.260308139086</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1149.54878113212</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>936.3156128684487</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>759.9896310073416</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>600.5876713711716</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1038.264232523694</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>949.4527002428704</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>789.9580555657803</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1321.06237997757</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.264232523694</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1038.264232523694</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.264232523694</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.264232523694</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.264232523694</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
@@ -7985,22 +7987,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>269.8552598673813</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,16 +8060,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6762761514423</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>93.7531263091295</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8079,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8304,13 +8306,13 @@
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>359.4030239885896</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8453,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>269.8552598673813</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>329.5449236222969</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>337.5073157537831</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>614.9758611266449</v>
@@ -8772,7 +8774,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M12" t="n">
         <v>579.627854108443</v>
@@ -8784,7 +8786,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>334.2508956958897</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>528.8634714130243</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>333.0441487333853</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>62.07087134908629</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L20" t="n">
-        <v>749.459759052679</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>469.3131672103696</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.5250110322107</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>214.677458821282</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9717,25 +9719,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9890,10 +9892,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>594.6194560602019</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10124,7 +10126,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>594.1598684051008</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10133,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>91.92897171537922</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10349,7 +10351,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>617.5489684328704</v>
@@ -10358,16 +10360,16 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>87.31214281472352</v>
@@ -10431,7 +10433,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>527.2265162238734</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>579.627854108443</v>
@@ -10443,13 +10445,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
         <v>615.2533459958087</v>
@@ -10668,7 +10670,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
         <v>579.627854108443</v>
@@ -10677,13 +10679,13 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>205.3433246237784</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10829,19 +10831,19 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>593.882383535937</v>
       </c>
       <c r="O38" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
         <v>87.31214281472352</v>
@@ -10899,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>558.5343765177347</v>
+        <v>425.4271248393441</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11063,19 +11065,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P41" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11139,22 +11141,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>529.1545888121299</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11300,25 +11302,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>104.5030629899652</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>594.2603172363632</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,19 +11381,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>558.5343765177347</v>
       </c>
       <c r="N45" t="n">
-        <v>427.5824244671905</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>132.7350114629138</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>131.8227231625307</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.8394155455417</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>167.6802049530107</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22802,7 +22804,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>223.2753097396194</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>174.5973550380961</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>153.0754092327799</v>
+        <v>12.17187710393716</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,13 +23077,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>82.68617307340649</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.20747108004105</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>112.0580787959145</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>377.5154850590008</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>360.0242673938928</v>
+        <v>7.99840855552759</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23792,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>124.7459809391943</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23902,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>123.0384446415722</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.8167510407119</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.99840855552759</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>77.19236212984245</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>209.1221683191783</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>23.13875615312747</v>
+        <v>17.77593127592968</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24415,19 +24417,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>194.7158398879887</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>93.42449318090794</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>219.5117639267365</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9481933162661</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>137.5338199503921</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24658,10 +24660,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.4721418953572</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24886,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>94.61732129505862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.3178148026443</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.2983828659822</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>56.01419322081114</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>384.7425708038061</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25217,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25400,10 +25402,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>376.4250847118721</v>
       </c>
       <c r="G38" t="n">
-        <v>313.9481933162661</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25448,13 +25450,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>14.23265639424187</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25561,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>170.535215949722</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>107.9511458051263</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>56.01419322081084</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25837,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>8.893130557884689</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>62.37677637587154</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25919,19 +25921,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>59.87346923197703</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>50.75978341624909</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>81.45902175588542</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542957.7494433683</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542957.7494433683</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>601128.1872299842</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773178.9944088114</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433682</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542957.7494433683</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542957.7494433683</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453802.0533382532</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
   </sheetData>
@@ -26329,10 +26331,10 @@
         <v>171233.1127674947</v>
       </c>
       <c r="H2" t="n">
-        <v>189570.0655407167</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="I2" t="n">
-        <v>243805.303332906</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="J2" t="n">
         <v>171233.1127674947</v>
@@ -26353,7 +26355,7 @@
         <v>171233.1127674947</v>
       </c>
       <c r="P2" t="n">
-        <v>143128.7379140639</v>
+        <v>171233.1127674947</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>48718.21749193842</v>
+      </c>
+      <c r="C4" t="n">
         <v>48718.21749193841</v>
-      </c>
-      <c r="C4" t="n">
-        <v>48718.21749193842</v>
       </c>
       <c r="D4" t="n">
         <v>48718.21749193841</v>
@@ -26433,16 +26435,16 @@
         <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
-        <v>53977.60037988087</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="I4" t="n">
-        <v>69533.28649062227</v>
+        <v>48718.2174919384</v>
       </c>
       <c r="J4" t="n">
         <v>48718.21749193841</v>
       </c>
       <c r="K4" t="n">
-        <v>48718.21749193841</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="L4" t="n">
         <v>48718.21749193841</v>
@@ -26451,13 +26453,13 @@
         <v>48718.21749193841</v>
       </c>
       <c r="N4" t="n">
+        <v>48718.21749193842</v>
+      </c>
+      <c r="O4" t="n">
+        <v>48718.21749193842</v>
+      </c>
+      <c r="P4" t="n">
         <v>48718.21749193841</v>
-      </c>
-      <c r="O4" t="n">
-        <v>48718.21749193841</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40657.35427172509</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-117809.6796960553</v>
       </c>
       <c r="C6" t="n">
+        <v>57145.83019705879</v>
+      </c>
+      <c r="D6" t="n">
         <v>57145.83019705876</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57145.83019705879</v>
       </c>
       <c r="E6" t="n">
         <v>90773.4301970587</v>
       </c>
       <c r="F6" t="n">
+        <v>90773.43019705874</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90773.43019705873</v>
+      </c>
+      <c r="H6" t="n">
         <v>90773.4301970587</v>
       </c>
-      <c r="G6" t="n">
-        <v>90773.4301970587</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60240.10550631394</v>
-      </c>
       <c r="I6" t="n">
-        <v>7039.269341331179</v>
+        <v>90773.43019705877</v>
       </c>
       <c r="J6" t="n">
-        <v>90773.43019705873</v>
+        <v>-45821.37060883627</v>
       </c>
       <c r="K6" t="n">
         <v>90773.4301970587</v>
@@ -26555,13 +26557,13 @@
         <v>90773.43019705873</v>
       </c>
       <c r="N6" t="n">
-        <v>90773.43019705875</v>
+        <v>90773.4301970587</v>
       </c>
       <c r="O6" t="n">
         <v>90773.43019705873</v>
       </c>
       <c r="P6" t="n">
-        <v>78750.09463352567</v>
+        <v>90773.4301970587</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -26829,7 +26831,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
@@ -34705,22 +34707,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537951</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>500.9700927793177</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>276.3515302285469</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="L11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
       <c r="M11" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>522.0635703700256</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M12" t="n">
         <v>522.0635703700256</v>
@@ -35504,7 +35506,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.2170912967376</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
+        <v>471.1119924130243</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>10.70163254908628</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P18" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>376.4008764537502</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q21" t="n">
-        <v>191.832392527372</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>141.3538674879741</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,10 +36612,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>500.9700927793177</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>500.9700927793177</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.55973291537921</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>522.0635703700256</v>
@@ -37078,16 +37080,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>471.1119924130244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>522.0635703700256</v>
@@ -37163,13 +37165,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>522.0635703700256</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
         <v>522.0635703700256</v>
@@ -37397,13 +37399,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237784</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,19 +37551,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="O38" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>500.9700927793173</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>176.5650354103359</v>
+      </c>
+      <c r="P41" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O41" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P41" t="n">
-        <v>176.5650354103359</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37859,22 +37861,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O42" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P42" t="n">
-        <v>474.8949538093261</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>9.017664927120396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="N45" t="n">
-        <v>374.3890310734405</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432498.066694191</v>
+        <v>426768.6708629643</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6278287.202313812</v>
+        <v>6278287.202313811</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>117.780005467875</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.1045831588601</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.61362491373681</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.1752199258839</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>59.05303324739599</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>123.0638693772647</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>76.7727149680484</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>101.6816128081183</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>392.4691241621589</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.4022331500887</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>362.4162272397802</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.36677840961278</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.407212797182337</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.1752199258839</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>258.5408597083187</v>
       </c>
       <c r="D17" t="n">
-        <v>392.4208820523424</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.0767283909097</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>81.06056272701707</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>392.4208820523424</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>70.91901851275546</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>388.2474135039329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.9554384594968</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>85.25432609134842</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>190.6850494015357</v>
+        <v>288.3612118119556</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>28.04406721331992</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>333.2626592949811</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.10574526835483</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19.89843046229006</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>313.0795152218687</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>228.7838177237436</v>
       </c>
       <c r="W34" t="n">
-        <v>220.2647746254032</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>19.89843046229006</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>20.48784214415942</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>40.3950232139772</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>294.7228925766561</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.5900529358621</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>55.69551283691921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3742,22 +3742,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>392.4208820523424</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>58.73958456882135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>54.29350408687457</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097038</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>31.72385070910551</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.0538370894138</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>57.46091455696509</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1188.0442105313</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C2" t="n">
-        <v>1188.0442105313</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>1188.0442105313</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>773.7039950481965</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4339,16 +4339,16 @@
         <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X2" t="n">
-        <v>1866.047797426961</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y2" t="n">
-        <v>1598.265390195789</v>
+        <v>160.7347881224051</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>693.2671446339567</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>522.1737721956732</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>522.1737721956732</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>361.2629570639927</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>361.2629570639927</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>194.0125659895361</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>44.40511079499277</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1355.411243798696</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1115.862504775398</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>833.0643573215223</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>559.1786122610442</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W4" t="n">
-        <v>280.1089477699186</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="X4" t="n">
-        <v>41.76508562960205</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>880.9668510280011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>538.2414389992588</v>
+        <v>936.785241691741</v>
       </c>
       <c r="C5" t="n">
-        <v>128.1168483125289</v>
+        <v>936.785241691741</v>
       </c>
       <c r="D5" t="n">
-        <v>128.1168483125289</v>
+        <v>936.785241691741</v>
       </c>
       <c r="E5" t="n">
-        <v>128.1168483125289</v>
+        <v>522.4450262086377</v>
       </c>
       <c r="F5" t="n">
-        <v>128.1168483125289</v>
+        <v>101.4146141623253</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>101.4146141623253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>101.4146141623253</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,22 +4573,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1349.399291715658</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1349.399291715658</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X5" t="n">
-        <v>1349.399291715658</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y5" t="n">
-        <v>948.4626186637482</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524886</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.8584580678856</v>
+        <v>451.19479953089</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>451.19479953089</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>451.19479953089</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W7" t="n">
-        <v>400.5581644619299</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="X7" t="n">
-        <v>400.5581644619299</v>
+        <v>863.6302045361697</v>
       </c>
       <c r="Y7" t="n">
-        <v>400.5581644619299</v>
+        <v>638.8945059249344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.033101815613</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.033101815613</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="D8" t="n">
-        <v>1273.569171908673</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E8" t="n">
-        <v>859.22895642557</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F8" t="n">
-        <v>438.1985443792576</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4810,46 +4810,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1360.305113075241</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>959.3684400233308</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844746</v>
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X10" t="n">
-        <v>224.1971997769844</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1695.988587952916</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>1586.896209062304</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H11" t="n">
         <v>41.76508562960205</v>
@@ -5041,19 +5041,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1054.568412147452</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147452</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5229,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1274.958175906603</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="C14" t="n">
-        <v>864.8335852198732</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="D14" t="n">
-        <v>864.8335852198732</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="E14" t="n">
-        <v>450.4933697367699</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>804.1965927753274</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>395.4683086681596</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>84.55981129587758</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
@@ -5281,22 +5281,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W14" t="n">
-        <v>2085.82275340214</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X14" t="n">
-        <v>1685.179355571093</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="Y14" t="n">
-        <v>1685.179355571093</v>
+        <v>1225.22700482164</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O15" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5460,25 +5460,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1355.411243798696</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1115.862504775398</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>833.0643573215223</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>559.1786122610442</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>280.1089477699186</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
         <v>41.76508562960205</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D17" t="n">
-        <v>871.5237817830823</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5515,19 +5515,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>52.35970185319746</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1659581184962</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N18" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
         <v>41.76508562960205</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.701348351886</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1016.701348351886</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>737.6316838607604</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>499.2878217204438</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>274.5521231092085</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815613</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.908511128883</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D20" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F20" t="n">
         <v>450.4933697367699</v>
@@ -5755,25 +5755,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L20" t="n">
-        <v>1054.568412147452</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M20" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5788,16 +5788,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>936.8366559336256</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>400.8398761986659</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>229.7465037603824</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>229.7465037603824</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>229.7465037603824</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>229.7465037603824</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>229.7465037603824</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5949,13 +5949,13 @@
         <v>588.5395825927103</v>
       </c>
       <c r="W22" t="n">
-        <v>588.5395825927103</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X22" t="n">
-        <v>588.5395825927103</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y22" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.033101815613</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6025,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1755.976060813944</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>1372.215759949112</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O24" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6180,19 +6180,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1245.499762326802</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>971.614017266324</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>692.5443527751984</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>454.2004906348818</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>954.0130281207041</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C26" t="n">
-        <v>954.0130281207041</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D26" t="n">
-        <v>954.0130281207041</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="E26" t="n">
-        <v>761.4018671090519</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F26" t="n">
         <v>761.4018671090519</v>
@@ -6226,52 +6226,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O26" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.416726816583</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W26" t="n">
-        <v>1354.656425951752</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X26" t="n">
-        <v>954.0130281207041</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y26" t="n">
-        <v>954.0130281207041</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="27">
@@ -6311,13 +6311,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O27" t="n">
         <v>1221.566882129794</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>395.6343672702064</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>234.7235521385259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>70.09242624911712</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
         <v>41.76508562960205</v>
@@ -6411,25 +6411,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.278237189974</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.208572698848</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X28" t="n">
-        <v>779.8647105585317</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y28" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.988587952916</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H29" t="n">
         <v>41.76508562960205</v>
@@ -6469,46 +6469,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M29" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="N29" t="n">
-        <v>1592.293889628578</v>
-      </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959273</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>220.5584629009898</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>220.5584629009898</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>61.06381822389986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>61.06381822389986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>61.06381822389986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
         <v>41.76508562960205</v>
@@ -6648,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1145.223475107064</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>871.3377300465861</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>871.3377300465861</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>632.9938679062695</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>408.2581692950342</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>876.4530309326553</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C32" t="n">
-        <v>466.3284402459254</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D32" t="n">
-        <v>61.86451033898595</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960205</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
         <v>41.76508562960205</v>
@@ -6700,25 +6700,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N32" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O32" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q32" t="n">
         <v>2088.254281480102</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1157.464295913028</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="X32" t="n">
-        <v>1687.610883649055</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y32" t="n">
-        <v>1286.674210597145</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1214.985342995715</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C34" t="n">
-        <v>1043.891970557431</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D34" t="n">
-        <v>884.3973258803412</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E34" t="n">
-        <v>723.4865107486606</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592519</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V34" t="n">
-        <v>2088.254281480102</v>
+        <v>914.1287097295453</v>
       </c>
       <c r="W34" t="n">
-        <v>1865.764610141311</v>
+        <v>635.0590452384197</v>
       </c>
       <c r="X34" t="n">
-        <v>1627.420748000995</v>
+        <v>396.715183098103</v>
       </c>
       <c r="Y34" t="n">
-        <v>1402.685049389759</v>
+        <v>396.715183098103</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.4530309326553</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="C35" t="n">
-        <v>466.3284402459254</v>
+        <v>1198.862714999741</v>
       </c>
       <c r="D35" t="n">
-        <v>61.86451033898595</v>
+        <v>794.398785092802</v>
       </c>
       <c r="E35" t="n">
-        <v>61.86451033898595</v>
+        <v>794.398785092802</v>
       </c>
       <c r="F35" t="n">
-        <v>61.86451033898595</v>
+        <v>373.3683730464895</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>373.3683730464895</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>62.45987567420752</v>
       </c>
       <c r="I35" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N35" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O35" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649055</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.674210597145</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N36" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O36" t="n">
-        <v>1738.409816796118</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P36" t="n">
         <v>1738.409816796118</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
         <v>41.76508562960205</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.593134765086</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1142.707389704608</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>863.6377252134819</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>625.2938630731653</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>492.6927300678241</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C38" t="n">
-        <v>82.56813938109417</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D38" t="n">
-        <v>82.56813938109417</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E38" t="n">
-        <v>82.56813938109417</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F38" t="n">
         <v>41.76508562960205</v>
@@ -7177,16 +7177,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N38" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O38" t="n">
         <v>2088.254281480102</v>
@@ -7201,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.493980615271</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X38" t="n">
-        <v>1303.850582784223</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y38" t="n">
-        <v>902.9139097323135</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="39">
@@ -7259,13 +7259,13 @@
         <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
         <v>1571.411346813777</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>646.0623502325593</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C40" t="n">
-        <v>474.9689777942758</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
         <v>41.76508562960205</v>
@@ -7365,19 +7365,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1057.729498166676</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1057.729498166676</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>819.3856360263594</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>819.3856360263594</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815613</v>
+        <v>919.902144725525</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.908511128883</v>
+        <v>919.902144725525</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.908511128883</v>
+        <v>515.4382148185855</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>101.0979993354822</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>101.0979993354822</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>101.0979993354822</v>
       </c>
       <c r="H41" t="n">
         <v>41.76508562960205</v>
@@ -7411,52 +7411,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O41" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1158.40534984338</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C43" t="n">
-        <v>987.311977405097</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D43" t="n">
-        <v>827.8173327280069</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E43" t="n">
-        <v>666.9065175963265</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1809.184616988977</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1570.84075484866</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>1346.105056237425</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>757.1375129088235</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C44" t="n">
-        <v>757.1375129088235</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D44" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E44" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F44" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
         <v>41.76508562960205</v>
@@ -7648,28 +7648,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M44" t="n">
-        <v>1054.568412147452</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N44" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
@@ -7678,22 +7678,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V44" t="n">
-        <v>1481.356235076093</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.595934211262</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.595934211262</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y44" t="n">
-        <v>757.1375129088235</v>
+        <v>73.80937927516317</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.568412147451</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N45" t="n">
+        <v>1054.568412147452</v>
+      </c>
+      <c r="O45" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960205</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960205</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G46" t="n">
         <v>41.76508562960205</v>
@@ -7833,25 +7833,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.817095773278</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V46" t="n">
-        <v>774.9313507128002</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W46" t="n">
-        <v>495.8616862216745</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="X46" t="n">
-        <v>257.5178240813579</v>
+        <v>1052.845141234566</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960205</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
   </sheetData>
@@ -7987,19 +7987,19 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>296.4405581451824</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,13 +8063,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>93.7531263091295</v>
+        <v>232.5803491573233</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,25 +8221,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>339.7024893595824</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>359.4030239885896</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8470,13 +8470,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>579.8150493700256</v>
@@ -8789,10 +8789,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>578.1780941808746</v>
@@ -9017,19 +9017,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>528.8634714130243</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
@@ -9175,10 +9175,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>62.07087134908629</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,16 +9257,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P18" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
         <v>614.9758611266449</v>
@@ -9424,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P21" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8093398682832</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P24" t="n">
         <v>576.3232053728293</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>72.04887768380563</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P27" t="n">
         <v>576.3232053728293</v>
@@ -10117,7 +10117,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
         <v>615.3537948270711</v>
@@ -10126,16 +10126,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>593.882383535937</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>87.31214281472352</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>555.229727782121</v>
+        <v>68.74422894819149</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O35" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>205.3433246237784</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10825,7 +10825,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L38" t="n">
         <v>617.5489684328704</v>
@@ -10834,10 +10834,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
@@ -10907,16 +10907,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>425.4271248393441</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P39" t="n">
         <v>576.3232053728293</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>269.754811036119</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P41" t="n">
         <v>615.7129336509097</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>594.2603172363632</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M45" t="n">
-        <v>558.5343765177347</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>288.3389623999695</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22555,16 +22555,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.8227231625307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>112.5689605229803</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22804,7 +22804,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>26.43521180870157</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>223.2753097396194</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22944,19 +22944,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>82.52899201231531</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>174.5973550380961</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.17187710393716</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23080,16 +23080,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>156.2347307026483</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23196,10 +23196,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>43.60711754008236</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>43.12146664648479</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>377.5154850590008</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>55.3526305130049</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>147.4824850715439</v>
       </c>
       <c r="D17" t="n">
-        <v>7.99840855552759</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.7459809391943</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>325.0584051408275</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>7.99840855552759</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24144,10 +24144,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>77.19236212984245</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>17.77593127592968</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24226,7 +24226,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>17.38374065738731</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>194.7158398879887</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>219.5117639267365</v>
+        <v>121.8356015163167</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24606,16 +24606,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>137.5338199503921</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24651,13 +24651,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>63.66464702640974</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24852,7 +24852,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>146.4721418953572</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24888,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>390.2983828659822</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>33.25966389501542</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25125,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>42.36306988612967</v>
       </c>
       <c r="W34" t="n">
-        <v>56.01419322081114</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>384.7425708038061</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>65.00040291193815</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25365,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,7 +25402,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>376.4250847118721</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>102.2044137447347</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.23265639424187</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>113.6869258769814</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>249.0598278297378</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25693,7 +25693,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.6061941434445</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081084</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>374.395117158739</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25882,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25918,7 +25918,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>59.87346923197703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26073,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>218.8180532892493</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542957.7494433683</v>
+        <v>542957.7494433684</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542957.7494433682</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542957.7494433684</v>
+        <v>542957.7494433683</v>
       </c>
     </row>
     <row r="16">
@@ -26346,7 +26346,7 @@
         <v>171233.1127674947</v>
       </c>
       <c r="M2" t="n">
-        <v>171233.1127674947</v>
+        <v>171233.1127674948</v>
       </c>
       <c r="N2" t="n">
         <v>171233.1127674947</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="C4" t="n">
         <v>48718.21749193841</v>
@@ -26426,7 +26426,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="E4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="F4" t="n">
         <v>48718.21749193841</v>
@@ -26435,16 +26435,16 @@
         <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="I4" t="n">
-        <v>48718.2174919384</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="J4" t="n">
         <v>48718.21749193841</v>
       </c>
       <c r="K4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="L4" t="n">
         <v>48718.21749193841</v>
@@ -26453,13 +26453,13 @@
         <v>48718.21749193841</v>
       </c>
       <c r="N4" t="n">
+        <v>48718.21749193841</v>
+      </c>
+      <c r="O4" t="n">
+        <v>48718.21749193841</v>
+      </c>
+      <c r="P4" t="n">
         <v>48718.21749193842</v>
-      </c>
-      <c r="O4" t="n">
-        <v>48718.21749193842</v>
-      </c>
-      <c r="P4" t="n">
-        <v>48718.21749193841</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117809.6796960553</v>
+        <v>-118487.2085554494</v>
       </c>
       <c r="C6" t="n">
-        <v>57145.83019705879</v>
+        <v>56468.30133766468</v>
       </c>
       <c r="D6" t="n">
-        <v>57145.83019705876</v>
+        <v>56468.30133766474</v>
       </c>
       <c r="E6" t="n">
-        <v>90773.4301970587</v>
+        <v>90095.90133766471</v>
       </c>
       <c r="F6" t="n">
-        <v>90773.43019705874</v>
+        <v>90095.90133766471</v>
       </c>
       <c r="G6" t="n">
-        <v>90773.43019705873</v>
+        <v>90095.90133766471</v>
       </c>
       <c r="H6" t="n">
-        <v>90773.4301970587</v>
+        <v>90095.90133766468</v>
       </c>
       <c r="I6" t="n">
-        <v>90773.43019705877</v>
+        <v>90095.90133766473</v>
       </c>
       <c r="J6" t="n">
-        <v>-45821.37060883627</v>
+        <v>-46498.89946823024</v>
       </c>
       <c r="K6" t="n">
-        <v>90773.4301970587</v>
+        <v>90095.90133766471</v>
       </c>
       <c r="L6" t="n">
-        <v>90773.4301970587</v>
+        <v>90095.90133766468</v>
       </c>
       <c r="M6" t="n">
-        <v>90773.43019705873</v>
+        <v>90095.90133766476</v>
       </c>
       <c r="N6" t="n">
-        <v>90773.4301970587</v>
+        <v>90095.90133766465</v>
       </c>
       <c r="O6" t="n">
-        <v>90773.43019705873</v>
+        <v>90095.90133766471</v>
       </c>
       <c r="P6" t="n">
-        <v>90773.4301970587</v>
+        <v>90095.90133766471</v>
       </c>
     </row>
   </sheetData>
@@ -34707,19 +34707,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,13 +34783,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>40.55973291537951</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>244.2170912967376</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>306.2096305948396</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35190,13 +35190,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>522.0635703700256</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>522.0635703700256</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>471.1119924130243</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35895,10 +35895,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="O17" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O17" t="n">
-        <v>500.9700927793177</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.70163254908628</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="M20" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>522.0635703700256</v>
@@ -36144,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="P21" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N21" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O21" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P21" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N23" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O23" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M24" t="n">
-        <v>209.2450561298658</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P24" t="n">
         <v>522.0635703700256</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N26" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>176.5650354103359</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>14.48459394538821</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
         <v>522.0635703700256</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>522.0635703700256</v>
@@ -36846,16 +36846,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
+        <v>209.2450561298658</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N30" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O30" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P30" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793172</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O35" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
+        <v>14.48459394538775</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N36" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O36" t="n">
-        <v>147.5918456237784</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L38" t="n">
         <v>522.0635703700256</v>
@@ -37554,10 +37554,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P39" t="n">
         <v>522.0635703700256</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M41" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>176.5650354103359</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P41" t="n">
         <v>522.0635703700256</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M45" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
